--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y294"/>
+  <dimension ref="A1:Y295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
       </c>
       <c r="R293" s="2" t="inlineStr"/>
     </row>
-    <row r="294">
+    <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
           <t>A 35156-2023</t>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,6 +18242,63 @@
         <v>0</v>
       </c>
       <c r="R294" s="2" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>A 41434-2023</t>
+        </is>
+      </c>
+      <c r="B295" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C295" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>VANSBRO</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0</v>
+      </c>
+      <c r="O295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R295" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y295"/>
+  <dimension ref="A1:Y296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
       </c>
       <c r="R294" s="2" t="inlineStr"/>
     </row>
-    <row r="295">
+    <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
           <t>A 41434-2023</t>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18299,6 +18299,68 @@
         <v>0</v>
       </c>
       <c r="R295" s="2" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>A 42308-2023</t>
+        </is>
+      </c>
+      <c r="B296" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C296" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>VANSBRO</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0</v>
+      </c>
+      <c r="O296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R296" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y296"/>
+  <dimension ref="A1:Y297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
       </c>
       <c r="R295" s="2" t="inlineStr"/>
     </row>
-    <row r="296">
+    <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
           <t>A 42308-2023</t>
@@ -18310,7 +18310,7 @@
         <v>45180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18361,6 +18361,63 @@
         <v>0</v>
       </c>
       <c r="R296" s="2" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>A 42527-2023</t>
+        </is>
+      </c>
+      <c r="B297" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C297" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>VANSBRO</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0</v>
+      </c>
+      <c r="O297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R297" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -639,31 +639,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 40224-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 40224-2022.xlsx", "A 40224-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 40224-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 40224-2022.png", "A 40224-2022")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/knärot/A 40224-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/knärot/A 40224-2022.png", "A 40224-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 40224-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 40224-2022.docx", "A 40224-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 40224-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 40224-2022.docx", "A 40224-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 40224-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 40224-2022.docx", "A 40224-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 40224-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 40224-2022.docx", "A 40224-2022")</f>
         <v/>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -736,31 +736,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 53047-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 53047-2022.xlsx", "A 53047-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 53047-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 53047-2022.png", "A 53047-2022")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/knärot/A 53047-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/knärot/A 53047-2022.png", "A 53047-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 53047-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 53047-2022.docx", "A 53047-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 53047-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 53047-2022.docx", "A 53047-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 53047-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 53047-2022.docx", "A 53047-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 53047-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 53047-2022.docx", "A 53047-2022")</f>
         <v/>
       </c>
     </row>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,27 +827,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 31917-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 31917-2021.xlsx", "A 31917-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 31917-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 31917-2021.png", "A 31917-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 31917-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 31917-2021.docx", "A 31917-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 31917-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 31917-2021.docx", "A 31917-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 31917-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 31917-2021.docx", "A 31917-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 31917-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 31917-2021.docx", "A 31917-2021")</f>
         <v/>
       </c>
     </row>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,27 +914,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 46316-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 46316-2021.xlsx", "A 46316-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 46316-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 46316-2021.png", "A 46316-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 46316-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 46316-2021.docx", "A 46316-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 46316-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 46316-2021.docx", "A 46316-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 46316-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 46316-2021.docx", "A 46316-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 46316-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 46316-2021.docx", "A 46316-2021")</f>
         <v/>
       </c>
     </row>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,27 +1000,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 16524-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 16524-2019.xlsx", "A 16524-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 16524-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 16524-2019.png", "A 16524-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 16524-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 16524-2019.docx", "A 16524-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 16524-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 16524-2019.docx", "A 16524-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 16524-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 16524-2019.docx", "A 16524-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 16524-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 16524-2019.docx", "A 16524-2019")</f>
         <v/>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,31 +1086,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 23406-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 23406-2020.xlsx", "A 23406-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 23406-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 23406-2020.png", "A 23406-2020")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/knärot/A 23406-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/knärot/A 23406-2020.png", "A 23406-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 23406-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 23406-2020.docx", "A 23406-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 23406-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 23406-2020.docx", "A 23406-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 23406-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 23406-2020.docx", "A 23406-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 23406-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 23406-2020.docx", "A 23406-2020")</f>
         <v/>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1176,31 +1176,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 1389-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 1389-2021.xlsx", "A 1389-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 1389-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 1389-2021.png", "A 1389-2021")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/knärot/A 1389-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/knärot/A 1389-2021.png", "A 1389-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 1389-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 1389-2021.docx", "A 1389-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 1389-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 1389-2021.docx", "A 1389-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 1389-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 1389-2021.docx", "A 1389-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 1389-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 1389-2021.docx", "A 1389-2021")</f>
         <v/>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,27 +1270,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 21877-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 21877-2019.xlsx", "A 21877-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 21877-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 21877-2019.png", "A 21877-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 21877-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 21877-2019.docx", "A 21877-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 21877-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 21877-2019.docx", "A 21877-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 21877-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 21877-2019.docx", "A 21877-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 21877-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 21877-2019.docx", "A 21877-2019")</f>
         <v/>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1355,27 +1355,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 18834-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 18834-2021.xlsx", "A 18834-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 18834-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 18834-2021.png", "A 18834-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 18834-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 18834-2021.docx", "A 18834-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 18834-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 18834-2021.docx", "A 18834-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 18834-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 18834-2021.docx", "A 18834-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 18834-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 18834-2021.docx", "A 18834-2021")</f>
         <v/>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,27 +1440,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 45205-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 45205-2021.xlsx", "A 45205-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 45205-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 45205-2021.png", "A 45205-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 45205-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 45205-2021.docx", "A 45205-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 45205-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 45205-2021.docx", "A 45205-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 45205-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 45205-2021.docx", "A 45205-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 45205-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 45205-2021.docx", "A 45205-2021")</f>
         <v/>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,27 +1530,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 50688-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 50688-2021.xlsx", "A 50688-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 50688-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 50688-2021.png", "A 50688-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 50688-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 50688-2021.docx", "A 50688-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 50688-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 50688-2021.docx", "A 50688-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 50688-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 50688-2021.docx", "A 50688-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 50688-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 50688-2021.docx", "A 50688-2021")</f>
         <v/>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,27 +1620,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 51579-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 51579-2021.xlsx", "A 51579-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 51579-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 51579-2021.png", "A 51579-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 51579-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 51579-2021.docx", "A 51579-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 51579-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 51579-2021.docx", "A 51579-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 51579-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 51579-2021.docx", "A 51579-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 51579-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 51579-2021.docx", "A 51579-2021")</f>
         <v/>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,31 +1710,31 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 5070-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/artfynd/A 5070-2023.xlsx", "A 5070-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 5070-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/kartor/A 5070-2023.png", "A 5070-2023")</f>
         <v/>
       </c>
       <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/knärot/A 5070-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/knärot/A 5070-2023.png", "A 5070-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 5070-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomål/A 5070-2023.docx", "A 5070-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 5070-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/klagomålsmail/A 5070-2023.docx", "A 5070-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 5070-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsyn/A 5070-2023.docx", "A 5070-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 5070-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANSBRO/tillsynsmail/A 5070-2023.docx", "A 5070-2023")</f>
         <v/>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y297"/>
+  <dimension ref="A1:Y298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
       </c>
       <c r="R296" s="2" t="inlineStr"/>
     </row>
-    <row r="297">
+    <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
           <t>A 42527-2023</t>
@@ -18372,7 +18372,7 @@
         <v>45181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18418,6 +18418,63 @@
         <v>0</v>
       </c>
       <c r="R297" s="2" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>A 45833-2023</t>
+        </is>
+      </c>
+      <c r="B298" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C298" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>VANSBRO</t>
+        </is>
+      </c>
+      <c r="G298" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>0</v>
+      </c>
+      <c r="O298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R298" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45195</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45195</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45195</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>

--- a/Översikt VANSBRO.xlsx
+++ b/Översikt VANSBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44820</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44442</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>43969</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43584</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44307</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44439</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44460</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43389</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43399</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43416</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>43434</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43503</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43507</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43559</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43559</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43570</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43587</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43619</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43657</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43672</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43679</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43686</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43693</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43693</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43697</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43700</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43710</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43714</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43718</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43726</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43767</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43780</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43788</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43832</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43860</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43886</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43886</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>43917</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43917</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43949</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43956</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>43962</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43966</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43969</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43969</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43987</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43987</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43993</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43994</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44011</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44011</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44011</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44039</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44050</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44066</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44066</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44067</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44069</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44084</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44084</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44084</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44085</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44089</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44094</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44096</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44096</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44096</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44106</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44123</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44123</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44123</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44130</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44134</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44146</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>44158</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44169</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44173</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44173</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44173</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44173</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44200</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44208</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44211</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44217</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44230</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44235</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44249</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44257</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44298</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44308</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44326</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44328</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44336</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44336</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44412</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44414</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44441</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44442</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44461</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44476</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44503</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44509</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44509</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44510</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44510</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44543</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44546</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44560</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44585</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44610</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44612</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44643</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44672</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44673</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44673</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44701</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44708</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44719</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44728</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>44729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44739</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44743</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44774</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44790</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44790</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44806</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44818</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44840</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44841</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44851</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44862</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44873</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44881</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44887</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44899</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44908</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44914</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44915</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44916</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44916</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44922</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44925</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44942</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44943</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44957</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44972</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45061</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45069</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45072</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45078</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45082</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45082</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45085</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45096</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45110</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45112</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45114</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45175</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45180</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45181</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45195</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
